--- a/results/mp/deberta/corona/confidence/42/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="140">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,109 +55,109 @@
     <t>panic</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>positive</t>
   </si>
   <si>
     <t>relief</t>
@@ -799,10 +799,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -881,7 +881,7 @@
         <v>144</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -931,7 +931,7 @@
         <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -981,7 +981,7 @@
         <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>0.967741935483871</v>
@@ -1031,7 +1031,7 @@
         <v>56</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>0.9230769230769231</v>
@@ -1081,7 +1081,7 @@
         <v>439</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>0.9111111111111111</v>
@@ -1110,28 +1110,28 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.08974358974358974</v>
+        <v>0.006184066933430338</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>198</v>
+        <v>375</v>
       </c>
       <c r="E8">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F8">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>142</v>
+        <v>2732</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8">
         <v>0.896551724137931</v>
@@ -1156,32 +1156,8 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.006184066933430338</v>
-      </c>
-      <c r="C9">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>375</v>
-      </c>
-      <c r="E9">
-        <v>0.95</v>
-      </c>
-      <c r="F9">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>2732</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9">
         <v>0.8803418803418803</v>
@@ -1207,7 +1183,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
         <v>0.8666666666666667</v>
@@ -1233,7 +1209,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
         <v>0.8611111111111112</v>
@@ -1259,7 +1235,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
         <v>0.8421052631578947</v>
@@ -1285,7 +1261,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <v>0.84</v>
@@ -1311,7 +1287,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
         <v>0.8346456692913385</v>
@@ -1337,7 +1313,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
         <v>0.8272727272727273</v>
@@ -1363,7 +1339,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
         <v>0.7901234567901234</v>
@@ -1389,7 +1365,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
         <v>0.7727272727272727</v>
@@ -1415,7 +1391,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
         <v>0.7692307692307693</v>
@@ -1441,7 +1417,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
         <v>0.7647058823529411</v>
@@ -1467,7 +1443,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
         <v>0.7619047619047619</v>
@@ -1493,7 +1469,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
         <v>0.7515923566878981</v>
@@ -1519,7 +1495,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
         <v>0.7142857142857143</v>
@@ -1545,7 +1521,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
         <v>0.7021276595744681</v>
@@ -1571,7 +1547,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
         <v>0.6818181818181818</v>
@@ -1597,7 +1573,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
         <v>0.68</v>
@@ -1623,7 +1599,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>0.676056338028169</v>
@@ -1649,59 +1625,59 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.6551724137931034</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L27">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="N27">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O27">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.6521739130434783</v>
+        <v>0.6359832635983264</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
         <v>0.6296296296296297</v>
@@ -1727,7 +1703,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
         <v>0.6111111111111112</v>
@@ -1753,7 +1729,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>0.6086956521739131</v>
@@ -1779,7 +1755,7 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>0.6078431372549019</v>
@@ -1805,7 +1781,7 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>0.5652173913043478</v>
@@ -1831,28 +1807,28 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.5644171779141104</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L34">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="N34">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>142</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1860,25 +1836,25 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>0.5614035087719298</v>
+        <v>0.5411764705882353</v>
       </c>
       <c r="L35">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="N35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>25</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -3807,7 +3783,7 @@
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K110">
         <v>0.1158576051779935</v>
